--- a/Data/ToyotaSub.xlsx
+++ b/Data/ToyotaSub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hillc\Dropbox\teaching\MSU\INFO 240_Stat\2024_HYBRID\1. Defining and Collecting Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A6409C9-48F4-48E8-BEF9-54B11F214A38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3093527C-246F-4F1B-B9CA-0FF717869D7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11205" xr2:uid="{E460B473-B541-4EBB-8295-B6B12ACF6809}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="210">
   <si>
     <t>ID</t>
   </si>
@@ -1006,13 +1006,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E334C03C-5929-4123-89A6-85C70E950606}">
-  <dimension ref="A1:J118"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2008,7 +2015,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>107411</v>
+        <v>107414</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
@@ -2020,10 +2027,10 @@
         <v>2007</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G32">
         <v>4</v>
@@ -2032,15 +2039,15 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>4.875</v>
+        <v>3.375</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>107412</v>
+        <v>107415</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
@@ -2052,27 +2059,27 @@
         <v>2007</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33">
-        <v>3.375</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>107413</v>
+        <v>107416</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
@@ -2084,27 +2091,27 @@
         <v>2007</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F34" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>3.375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>107414</v>
+        <v>107417</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
@@ -2116,10 +2123,10 @@
         <v>2007</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -2128,15 +2135,15 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>3.375</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>107415</v>
+        <v>107418</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
@@ -2148,27 +2155,27 @@
         <v>2007</v>
       </c>
       <c r="E36" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F36" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>107416</v>
+        <v>107419</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
@@ -2180,13 +2187,13 @@
         <v>2007</v>
       </c>
       <c r="E37" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2195,12 +2202,12 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>3.125</v>
+        <v>3.375</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>107417</v>
+        <v>107420</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
@@ -2212,13 +2219,13 @@
         <v>2007</v>
       </c>
       <c r="E38" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F38" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2227,12 +2234,12 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>3.25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>107418</v>
+        <v>107421</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
@@ -2244,10 +2251,10 @@
         <v>2007</v>
       </c>
       <c r="E39" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F39" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -2256,15 +2263,15 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>107419</v>
+        <v>107422</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
@@ -2276,13 +2283,13 @@
         <v>2007</v>
       </c>
       <c r="E40" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F40" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2291,12 +2298,12 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>3.375</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>107420</v>
+        <v>107425</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
@@ -2308,13 +2315,13 @@
         <v>2007</v>
       </c>
       <c r="E41" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F41" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2323,12 +2330,12 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>5</v>
+        <v>3.625</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>107421</v>
+        <v>107426</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
@@ -2340,10 +2347,10 @@
         <v>2007</v>
       </c>
       <c r="E42" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F42" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -2355,12 +2362,12 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>2.75</v>
+        <v>4.375</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>107422</v>
+        <v>107427</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
@@ -2372,13 +2379,13 @@
         <v>2007</v>
       </c>
       <c r="E43" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F43" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2387,12 +2394,12 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>3.25</v>
+        <v>4.875</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>107423</v>
+        <v>107428</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
@@ -2404,10 +2411,10 @@
         <v>2007</v>
       </c>
       <c r="E44" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -2419,12 +2426,12 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>3.625</v>
+        <v>4.125</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>107424</v>
+        <v>107429</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
@@ -2436,13 +2443,13 @@
         <v>2007</v>
       </c>
       <c r="E45" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="G45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2451,12 +2458,12 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>3.625</v>
+        <v>4.875</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>107425</v>
+        <v>107430</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
@@ -2468,13 +2475,13 @@
         <v>2007</v>
       </c>
       <c r="E46" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="G46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2483,12 +2490,12 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>3.625</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>107426</v>
+        <v>107431</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
@@ -2500,10 +2507,10 @@
         <v>2007</v>
       </c>
       <c r="E47" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F47" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="G47">
         <v>4</v>
@@ -2515,30 +2522,30 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>4.375</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>107427</v>
+        <v>87801</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="D48">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E48" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="G48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2547,27 +2554,27 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>4.875</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>107428</v>
+        <v>87802</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="D49">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E49" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="F49" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -2579,27 +2586,27 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>4.125</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>107429</v>
+        <v>87804</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="D50">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E50" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="F50" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="G50">
         <v>5</v>
@@ -2616,25 +2623,25 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>107430</v>
+        <v>87805</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="D51">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E51" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F51" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -2643,30 +2650,30 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>4.75</v>
+        <v>4.125</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>107431</v>
+        <v>87806</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="D52">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E52" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F52" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="G52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -2675,12 +2682,12 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>3.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>87801</v>
+        <v>87807</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
@@ -2692,10 +2699,10 @@
         <v>2008</v>
       </c>
       <c r="E53" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F53" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="G53">
         <v>4</v>
@@ -2707,12 +2714,12 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>87802</v>
+        <v>87808</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
@@ -2724,10 +2731,10 @@
         <v>2008</v>
       </c>
       <c r="E54" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F54" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G54">
         <v>4</v>
@@ -2739,12 +2746,12 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>87803</v>
+        <v>87809</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
@@ -2756,10 +2763,10 @@
         <v>2008</v>
       </c>
       <c r="E55" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F55" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -2771,12 +2778,12 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>4.875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>87804</v>
+        <v>87811</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
@@ -2788,10 +2795,10 @@
         <v>2008</v>
       </c>
       <c r="E56" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F56" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="G56">
         <v>5</v>
@@ -2803,12 +2810,12 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>4.875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>87805</v>
+        <v>87812</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
@@ -2820,10 +2827,10 @@
         <v>2008</v>
       </c>
       <c r="E57" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F57" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G57">
         <v>4</v>
@@ -2835,12 +2842,12 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>4.125</v>
+        <v>4.625</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>87806</v>
+        <v>87813</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
@@ -2852,13 +2859,13 @@
         <v>2008</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="F58" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="G58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -2867,12 +2874,12 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>5</v>
+        <v>3.875</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>87807</v>
+        <v>87814</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
@@ -2884,27 +2891,27 @@
         <v>2008</v>
       </c>
       <c r="E59" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F59" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="G59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59">
-        <v>4.25</v>
+        <v>4.625</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>87808</v>
+        <v>87815</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
@@ -2916,13 +2923,13 @@
         <v>2008</v>
       </c>
       <c r="E60" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F60" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="G60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -2931,12 +2938,12 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>3.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>87809</v>
+        <v>87816</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
@@ -2948,13 +2955,13 @@
         <v>2008</v>
       </c>
       <c r="E61" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="F61" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -2963,12 +2970,12 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>5</v>
+        <v>4.625</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>87810</v>
+        <v>87817</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
@@ -2980,10 +2987,10 @@
         <v>2008</v>
       </c>
       <c r="E62" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F62" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="G62">
         <v>5</v>
@@ -3000,7 +3007,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>87811</v>
+        <v>87818</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
@@ -3012,10 +3019,10 @@
         <v>2008</v>
       </c>
       <c r="E63" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="F63" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G63">
         <v>5</v>
@@ -3027,12 +3034,12 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>5</v>
+        <v>4.875</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>87812</v>
+        <v>87819</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
@@ -3044,13 +3051,13 @@
         <v>2008</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="G64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -3059,12 +3066,12 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>4.625</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>87813</v>
+        <v>87820</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
@@ -3076,13 +3083,13 @@
         <v>2008</v>
       </c>
       <c r="E65" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="F65" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="G65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -3091,12 +3098,12 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>3.875</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>87814</v>
+        <v>87821</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
@@ -3108,10 +3115,10 @@
         <v>2008</v>
       </c>
       <c r="E66" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F66" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="G66">
         <v>5</v>
@@ -3120,30 +3127,30 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>4.625</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>87815</v>
+        <v>71411</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="D67">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E67" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G67">
         <v>5</v>
@@ -3160,25 +3167,25 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>87816</v>
+        <v>71412</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="D68">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E68" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F68" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -3187,27 +3194,27 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>4.625</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>87817</v>
+        <v>71413</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="D69">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E69" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="F69" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G69">
         <v>5</v>
@@ -3224,22 +3231,22 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>87818</v>
+        <v>71414</v>
       </c>
       <c r="B70" t="s">
         <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="D70">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E70" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F70" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="G70">
         <v>5</v>
@@ -3251,27 +3258,27 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>4.875</v>
+        <v>4.625</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>87819</v>
+        <v>71415</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="D71">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E71" t="s">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="F71" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="G71">
         <v>5</v>
@@ -3288,22 +3295,22 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>87820</v>
+        <v>71416</v>
       </c>
       <c r="B72" t="s">
         <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="D72">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E72" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="G72">
         <v>5</v>
@@ -3315,27 +3322,27 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>3.75</v>
+        <v>4.875</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>87821</v>
+        <v>71417</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="D73">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="G73">
         <v>5</v>
@@ -3347,27 +3354,27 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>5</v>
+        <v>4.875</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>87822</v>
+        <v>71418</v>
       </c>
       <c r="B74" t="s">
         <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="D74">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="G74">
         <v>5</v>
@@ -3376,15 +3383,15 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74">
-        <v>5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>71411</v>
+        <v>71421</v>
       </c>
       <c r="B75" t="s">
         <v>10</v>
@@ -3396,13 +3403,13 @@
         <v>2007</v>
       </c>
       <c r="E75" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="F75" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="G75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3411,12 +3418,12 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>5</v>
+        <v>4.875</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>71412</v>
+        <v>71422</v>
       </c>
       <c r="B76" t="s">
         <v>10</v>
@@ -3428,10 +3435,10 @@
         <v>2007</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="G76">
         <v>5</v>
@@ -3448,7 +3455,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>71413</v>
+        <v>71423</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
@@ -3460,10 +3467,10 @@
         <v>2007</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="G77">
         <v>5</v>
@@ -3475,12 +3482,12 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>5</v>
+        <v>4.375</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>71414</v>
+        <v>71424</v>
       </c>
       <c r="B78" t="s">
         <v>10</v>
@@ -3492,10 +3499,10 @@
         <v>2007</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="G78">
         <v>5</v>
@@ -3507,12 +3514,12 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>4.625</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>71415</v>
+        <v>71425</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
@@ -3524,13 +3531,13 @@
         <v>2007</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="G79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3539,12 +3546,12 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>71416</v>
+        <v>71426</v>
       </c>
       <c r="B80" t="s">
         <v>10</v>
@@ -3556,10 +3563,10 @@
         <v>2007</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="G80">
         <v>5</v>
@@ -3576,7 +3583,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>71417</v>
+        <v>71427</v>
       </c>
       <c r="B81" t="s">
         <v>10</v>
@@ -3588,10 +3595,10 @@
         <v>2007</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="G81">
         <v>5</v>
@@ -3603,12 +3610,12 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>4.875</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>71418</v>
+        <v>71428</v>
       </c>
       <c r="B82" t="s">
         <v>10</v>
@@ -3620,10 +3627,10 @@
         <v>2007</v>
       </c>
       <c r="E82" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="F82" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="G82">
         <v>5</v>
@@ -3632,15 +3639,15 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82">
-        <v>4.75</v>
+        <v>4.875</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>71419</v>
+        <v>71431</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
@@ -3652,13 +3659,13 @@
         <v>2007</v>
       </c>
       <c r="E83" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="F83" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="G83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -3667,12 +3674,12 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>4.875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>71420</v>
+        <v>71432</v>
       </c>
       <c r="B84" t="s">
         <v>10</v>
@@ -3684,27 +3691,27 @@
         <v>2007</v>
       </c>
       <c r="E84" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="F84" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G84">
         <v>4</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>4.875</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>71421</v>
+        <v>71433</v>
       </c>
       <c r="B85" t="s">
         <v>10</v>
@@ -3716,10 +3723,10 @@
         <v>2007</v>
       </c>
       <c r="E85" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="F85" t="s">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="G85">
         <v>4</v>
@@ -3731,27 +3738,27 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>4.875</v>
+        <v>3.625</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>71422</v>
+        <v>97853</v>
       </c>
       <c r="B86" t="s">
         <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="D86">
         <v>2007</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="G86">
         <v>5</v>
@@ -3760,30 +3767,30 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>71423</v>
+        <v>97854</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="D87">
         <v>2007</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="G87">
         <v>5</v>
@@ -3795,27 +3802,27 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>4.375</v>
+        <v>4.875</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>71424</v>
+        <v>97855</v>
       </c>
       <c r="B88" t="s">
         <v>10</v>
       </c>
       <c r="C88" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="D88">
         <v>2007</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="G88">
         <v>5</v>
@@ -3827,30 +3834,30 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>5</v>
+        <v>4.625</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>71425</v>
+        <v>97856</v>
       </c>
       <c r="B89" t="s">
         <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="D89">
         <v>2007</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="G89">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -3859,59 +3866,59 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>4.5</v>
+        <v>4.625</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>71426</v>
+        <v>97857</v>
       </c>
       <c r="B90" t="s">
         <v>10</v>
       </c>
       <c r="C90" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="D90">
         <v>2007</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="F90" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="G90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90">
-        <v>4.875</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>71427</v>
+        <v>97858</v>
       </c>
       <c r="B91" t="s">
         <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="D91">
         <v>2007</v>
       </c>
       <c r="E91" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="F91" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="G91">
         <v>5</v>
@@ -3923,27 +3930,27 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>71428</v>
+        <v>97859</v>
       </c>
       <c r="B92" t="s">
         <v>10</v>
       </c>
       <c r="C92" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="D92">
         <v>2007</v>
       </c>
       <c r="E92" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="F92" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="G92">
         <v>5</v>
@@ -3960,22 +3967,22 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>71429</v>
+        <v>97861</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="D93">
         <v>2007</v>
       </c>
       <c r="E93" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="F93" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="G93">
         <v>5</v>
@@ -3987,27 +3994,27 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>71430</v>
+        <v>97862</v>
       </c>
       <c r="B94" t="s">
         <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="D94">
         <v>2007</v>
       </c>
       <c r="E94" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="F94" t="s">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="G94">
         <v>5</v>
@@ -4019,27 +4026,27 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>71431</v>
+        <v>97863</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="D95">
         <v>2007</v>
       </c>
       <c r="E95" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="F95" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="G95">
         <v>5</v>
@@ -4051,62 +4058,62 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>71432</v>
+        <v>97865</v>
       </c>
       <c r="B96" t="s">
         <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="D96">
         <v>2007</v>
       </c>
       <c r="E96" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
       <c r="G96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>3.125</v>
+        <v>4.875</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>71433</v>
+        <v>97866</v>
       </c>
       <c r="B97" t="s">
         <v>10</v>
       </c>
       <c r="C97" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="D97">
         <v>2007</v>
       </c>
       <c r="E97" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F97" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -4115,12 +4122,12 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>3.625</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>97853</v>
+        <v>97867</v>
       </c>
       <c r="B98" t="s">
         <v>10</v>
@@ -4132,27 +4139,27 @@
         <v>2007</v>
       </c>
       <c r="E98" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="F98" t="s">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c r="G98">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>4</v>
+        <v>4.125</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>97854</v>
+        <v>97870</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
@@ -4164,10 +4171,10 @@
         <v>2007</v>
       </c>
       <c r="E99" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="F99" t="s">
-        <v>185</v>
+        <v>107</v>
       </c>
       <c r="G99">
         <v>5</v>
@@ -4179,12 +4186,12 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>4.875</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>97855</v>
+        <v>97871</v>
       </c>
       <c r="B100" t="s">
         <v>10</v>
@@ -4196,10 +4203,10 @@
         <v>2007</v>
       </c>
       <c r="E100" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="F100" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="G100">
         <v>5</v>
@@ -4211,12 +4218,12 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>4.625</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>97856</v>
+        <v>97872</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
@@ -4228,13 +4235,13 @@
         <v>2007</v>
       </c>
       <c r="E101" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="F101" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="G101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -4243,12 +4250,12 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>4.625</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>97857</v>
+        <v>97873</v>
       </c>
       <c r="B102" t="s">
         <v>10</v>
@@ -4260,533 +4267,21 @@
         <v>2007</v>
       </c>
       <c r="E102" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="F102" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>97858</v>
-      </c>
-      <c r="B103" t="s">
-        <v>10</v>
-      </c>
-      <c r="C103" t="s">
-        <v>183</v>
-      </c>
-      <c r="D103">
-        <v>2007</v>
-      </c>
-      <c r="E103" t="s">
-        <v>191</v>
-      </c>
-      <c r="F103" t="s">
-        <v>192</v>
-      </c>
-      <c r="G103">
-        <v>5</v>
-      </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>97859</v>
-      </c>
-      <c r="B104" t="s">
-        <v>10</v>
-      </c>
-      <c r="C104" t="s">
-        <v>183</v>
-      </c>
-      <c r="D104">
-        <v>2007</v>
-      </c>
-      <c r="E104" t="s">
-        <v>193</v>
-      </c>
-      <c r="F104" t="s">
-        <v>194</v>
-      </c>
-      <c r="G104">
-        <v>5</v>
-      </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-      <c r="J104">
-        <v>4.875</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>97860</v>
-      </c>
-      <c r="B105" t="s">
-        <v>10</v>
-      </c>
-      <c r="C105" t="s">
-        <v>183</v>
-      </c>
-      <c r="D105">
-        <v>2007</v>
-      </c>
-      <c r="E105" t="s">
-        <v>195</v>
-      </c>
-      <c r="F105" t="s">
-        <v>30</v>
-      </c>
-      <c r="G105">
-        <v>5</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>97861</v>
-      </c>
-      <c r="B106" t="s">
-        <v>10</v>
-      </c>
-      <c r="C106" t="s">
-        <v>183</v>
-      </c>
-      <c r="D106">
-        <v>2007</v>
-      </c>
-      <c r="E106" t="s">
-        <v>195</v>
-      </c>
-      <c r="F106" t="s">
-        <v>30</v>
-      </c>
-      <c r="G106">
-        <v>5</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>97862</v>
-      </c>
-      <c r="B107" t="s">
-        <v>10</v>
-      </c>
-      <c r="C107" t="s">
-        <v>183</v>
-      </c>
-      <c r="D107">
-        <v>2007</v>
-      </c>
-      <c r="E107" t="s">
-        <v>196</v>
-      </c>
-      <c r="F107" t="s">
-        <v>197</v>
-      </c>
-      <c r="G107">
-        <v>5</v>
-      </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>97863</v>
-      </c>
-      <c r="B108" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108" t="s">
-        <v>183</v>
-      </c>
-      <c r="D108">
-        <v>2007</v>
-      </c>
-      <c r="E108" t="s">
-        <v>198</v>
-      </c>
-      <c r="F108" t="s">
-        <v>64</v>
-      </c>
-      <c r="G108">
-        <v>5</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>97864</v>
-      </c>
-      <c r="B109" t="s">
-        <v>10</v>
-      </c>
-      <c r="C109" t="s">
-        <v>183</v>
-      </c>
-      <c r="D109">
-        <v>2007</v>
-      </c>
-      <c r="E109" t="s">
-        <v>198</v>
-      </c>
-      <c r="F109" t="s">
-        <v>64</v>
-      </c>
-      <c r="G109">
-        <v>5</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>97865</v>
-      </c>
-      <c r="B110" t="s">
-        <v>10</v>
-      </c>
-      <c r="C110" t="s">
-        <v>183</v>
-      </c>
-      <c r="D110">
-        <v>2007</v>
-      </c>
-      <c r="E110" t="s">
-        <v>182</v>
-      </c>
-      <c r="F110" t="s">
-        <v>199</v>
-      </c>
-      <c r="G110">
-        <v>5</v>
-      </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110">
-        <v>4.875</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>97866</v>
-      </c>
-      <c r="B111" t="s">
-        <v>10</v>
-      </c>
-      <c r="C111" t="s">
-        <v>183</v>
-      </c>
-      <c r="D111">
-        <v>2007</v>
-      </c>
-      <c r="E111" t="s">
-        <v>182</v>
-      </c>
-      <c r="F111" t="s">
-        <v>200</v>
-      </c>
-      <c r="G111">
-        <v>5</v>
-      </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>97867</v>
-      </c>
-      <c r="B112" t="s">
-        <v>10</v>
-      </c>
-      <c r="C112" t="s">
-        <v>183</v>
-      </c>
-      <c r="D112">
-        <v>2007</v>
-      </c>
-      <c r="E112" t="s">
-        <v>201</v>
-      </c>
-      <c r="F112" t="s">
-        <v>202</v>
-      </c>
-      <c r="G112">
-        <v>4</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112">
-        <v>4.125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>97868</v>
-      </c>
-      <c r="B113" t="s">
-        <v>10</v>
-      </c>
-      <c r="C113" t="s">
-        <v>183</v>
-      </c>
-      <c r="D113">
-        <v>2007</v>
-      </c>
-      <c r="E113" t="s">
-        <v>203</v>
-      </c>
-      <c r="F113" t="s">
-        <v>107</v>
-      </c>
-      <c r="G113">
-        <v>5</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>97869</v>
-      </c>
-      <c r="B114" t="s">
-        <v>10</v>
-      </c>
-      <c r="C114" t="s">
-        <v>183</v>
-      </c>
-      <c r="D114">
-        <v>2007</v>
-      </c>
-      <c r="E114" t="s">
-        <v>203</v>
-      </c>
-      <c r="F114" t="s">
-        <v>107</v>
-      </c>
-      <c r="G114">
-        <v>5</v>
-      </c>
-      <c r="H114">
-        <v>0</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>97870</v>
-      </c>
-      <c r="B115" t="s">
-        <v>10</v>
-      </c>
-      <c r="C115" t="s">
-        <v>183</v>
-      </c>
-      <c r="D115">
-        <v>2007</v>
-      </c>
-      <c r="E115" t="s">
-        <v>203</v>
-      </c>
-      <c r="F115" t="s">
-        <v>107</v>
-      </c>
-      <c r="G115">
-        <v>5</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>97871</v>
-      </c>
-      <c r="B116" t="s">
-        <v>10</v>
-      </c>
-      <c r="C116" t="s">
-        <v>183</v>
-      </c>
-      <c r="D116">
-        <v>2007</v>
-      </c>
-      <c r="E116" t="s">
-        <v>204</v>
-      </c>
-      <c r="F116" t="s">
-        <v>205</v>
-      </c>
-      <c r="G116">
-        <v>5</v>
-      </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="J116">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>97872</v>
-      </c>
-      <c r="B117" t="s">
-        <v>10</v>
-      </c>
-      <c r="C117" t="s">
-        <v>183</v>
-      </c>
-      <c r="D117">
-        <v>2007</v>
-      </c>
-      <c r="E117" t="s">
-        <v>206</v>
-      </c>
-      <c r="F117" t="s">
-        <v>207</v>
-      </c>
-      <c r="G117">
-        <v>4</v>
-      </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-      <c r="J117">
-        <v>1.875</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>97873</v>
-      </c>
-      <c r="B118" t="s">
-        <v>10</v>
-      </c>
-      <c r="C118" t="s">
-        <v>183</v>
-      </c>
-      <c r="D118">
-        <v>2007</v>
-      </c>
-      <c r="E118" t="s">
-        <v>208</v>
-      </c>
-      <c r="F118" t="s">
-        <v>209</v>
-      </c>
-      <c r="G118">
-        <v>5</v>
-      </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118">
         <v>4</v>
       </c>
     </row>

--- a/Data/ToyotaSub.xlsx
+++ b/Data/ToyotaSub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hillc\Dropbox\teaching\MSU\INFO 240_Stat\2024_HYBRID\1. Defining and Collecting Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3093527C-246F-4F1B-B9CA-0FF717869D7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD95E97C-EC12-45BC-B6A7-1D0022C9CBEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11205" xr2:uid="{E460B473-B541-4EBB-8295-B6B12ACF6809}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="208">
   <si>
     <t>ID</t>
   </si>
@@ -643,12 +643,6 @@
   </si>
   <si>
     <t>Chrisco</t>
-  </si>
-  <si>
-    <t>Very weak truck</t>
-  </si>
-  <si>
-    <t>kboyfrommd</t>
   </si>
   <si>
     <t>Bad paint</t>
@@ -1006,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E334C03C-5929-4123-89A6-85C70E950606}">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4223,7 +4217,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>97872</v>
+        <v>97873</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
@@ -4241,7 +4235,7 @@
         <v>207</v>
       </c>
       <c r="G101">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -4250,38 +4244,6 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>1.875</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>97873</v>
-      </c>
-      <c r="B102" t="s">
-        <v>10</v>
-      </c>
-      <c r="C102" t="s">
-        <v>183</v>
-      </c>
-      <c r="D102">
-        <v>2007</v>
-      </c>
-      <c r="E102" t="s">
-        <v>208</v>
-      </c>
-      <c r="F102" t="s">
-        <v>209</v>
-      </c>
-      <c r="G102">
-        <v>5</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="J102">
         <v>4</v>
       </c>
     </row>
